--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -453,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +462,6 @@
         </is>
       </c>
       <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -487,11 +479,6 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,438 +490,215 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>03/02/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>5.6523</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>5.5613</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>5.5652</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>04/02/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>120400</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>02/01/2023</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>5.7253</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>5.5205</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>02/02/2023</t>
+          <t>07/02/2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>5.5065</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>5.5894</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>03/01/2023</t>
+          <t>08/02/2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>5.7789</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>5.5726</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>03/02/2023</t>
+          <t>09/02/2023</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>5.5613</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>5.6816</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>04/01/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>5.7603</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>5.5671</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>04/02/2023</t>
+          <t>11/02/2023</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>120400</v>
+        <v>114955</v>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>05/01/2023</t>
+          <t>12/02/2023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>5.6286</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>5.5671</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>05/02/2023</t>
+          <t>13/02/2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>5.5587</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>5.5363</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>06/01/2023</t>
+          <t>14/02/2023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>5.5614</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>5.5729</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>07/01/2023</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>89.626</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+          <t>15/02/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>5.5791</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>08/01/2023</t>
+          <t>16/02/2023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>5.5682</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>5.5643</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>09/01/2023</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>5.6387</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>5.525</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>10/01/2023</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>5.5829</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>18/02/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>128037</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
+          <t>19/02/2023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>5.5542</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>5.5203</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>12/01/2023</t>
+          <t>20/02/2023</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>5.5465</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>5.5188</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>13/01/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>5.519</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>5.5034</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>14/01/2023</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>107.5</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>15/01/2023</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
-        <v>5.5128</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>16/01/2023</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="n">
-        <v>5.5736</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>17/01/2023</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
-        <v>5.5017</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>18/01/2023</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="n">
-        <v>5.5991</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>19/01/2023</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="n">
-        <v>5.6046</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>20/01/2023</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
-        <v>5.6526</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>21/01/2023</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>118.528</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>22/01/2023</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
-        <v>5.6563</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>23/01/2023</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
-        <v>5.6607</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>24/01/2023</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
-        <v>5.595</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>25/01/2023</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
-        <v>5.5396</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>26/01/2023</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
-        <v>5.5177</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>27/01/2023</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
-        <v>5.5518</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>28/01/2023</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>118.007</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>29/01/2023</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
-        <v>5.5534</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>30/01/2023</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
-        <v>5.5511</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>31/01/2023</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
-        <v>5.5089</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>22/02/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>5.5265</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
